--- a/documents/OS-Naming Conventions.xlsx
+++ b/documents/OS-Naming Conventions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Cancer Embedded Operating System Naming Conventions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,12 +381,24 @@
 ulong getSystemClick();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)use &lt;__+name&gt; format </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__getb(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,506 +1063,506 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,7 +1579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1641,7 +1653,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1676,7 +1687,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,14 +1862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1874,928 +1884,934 @@
     <col min="17" max="17" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="135" t="s">
+    <row r="1" spans="2:17" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:17" ht="11.25" customHeight="1">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="137"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="140"/>
-    </row>
-    <row r="4" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="69"/>
+    </row>
+    <row r="4" spans="2:17" ht="21" customHeight="1" thickBot="1">
+      <c r="B4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="143"/>
-    </row>
-    <row r="5" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="149" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+    </row>
+    <row r="5" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="128" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="128" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="128" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
-    </row>
-    <row r="6" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="93" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="131" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="121" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="115" t="s">
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="37" t="s">
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="41" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="152" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="2:17" ht="14.25" customHeight="1">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="25" t="s">
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="2:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="153" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="10" spans="2:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="93" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+    </row>
+    <row r="11" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="131" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="36" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
-    </row>
-    <row r="13" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="36" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+    </row>
+    <row r="13" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="108" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-    </row>
-    <row r="14" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="36" t="s">
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.25" customHeight="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
-    </row>
-    <row r="15" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="146" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+    </row>
+    <row r="15" spans="2:17" ht="14.25" customHeight="1">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="129"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+    </row>
+    <row r="16" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50"/>
-    </row>
-    <row r="16" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="170" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+    </row>
+    <row r="17" spans="2:17" ht="18" customHeight="1">
+      <c r="B17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="144" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="145"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="9" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="16" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="172"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="41" t="s">
+      <c r="K17" s="175"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="146"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.25" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="12" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="19" t="s">
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="41" t="s">
+      <c r="K18" s="95"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="149"/>
+    </row>
+    <row r="19" spans="2:17" ht="20.25" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="12" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="19" t="s">
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="56"/>
-    </row>
-    <row r="19" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="41" t="s">
+      <c r="K19" s="95"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="149"/>
+    </row>
+    <row r="20" spans="2:17" ht="20.25" customHeight="1">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="24" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="19" t="s">
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="172"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="41" t="s">
+      <c r="K20" s="95"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="149"/>
+    </row>
+    <row r="21" spans="2:17" ht="17.25" customHeight="1">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="24" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="25" t="s">
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
-    </row>
-    <row r="21" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="157" t="s">
+      <c r="K21" s="95"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="149"/>
+    </row>
+    <row r="22" spans="2:17" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="15" t="s">
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="22" t="s">
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="170" t="s">
+      <c r="K22" s="177"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="152"/>
+    </row>
+    <row r="23" spans="2:17" ht="15" customHeight="1">
+      <c r="B23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="176" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="177"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="69" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="60" t="s">
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="172"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="35" t="s">
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="72" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="19" t="s">
+      <c r="H24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
-    </row>
-    <row r="24" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="35" t="s">
+      <c r="K24" s="95"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="52"/>
+    </row>
+    <row r="25" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="72" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="38" t="s">
+      <c r="H25" s="163"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
-    </row>
-    <row r="25" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="35" t="s">
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
+    </row>
+    <row r="26" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="24" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="44" t="s">
+      <c r="H26" s="114"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
-    </row>
-    <row r="26" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="35" t="s">
+      <c r="K26" s="129"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
+    </row>
+    <row r="27" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="24" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="38" t="s">
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47"/>
-    </row>
-    <row r="27" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="35" t="s">
+      <c r="K27" s="129"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+    </row>
+    <row r="28" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="24" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="25" t="s">
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="47"/>
-    </row>
-    <row r="28" spans="2:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="169" t="s">
+      <c r="K28" s="95"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="2:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="75" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="63" t="s">
+      <c r="H29" s="125"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="47"/>
-    </row>
-    <row r="29" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="133" t="s">
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="52"/>
+    </row>
+    <row r="30" spans="2:17" ht="19.5" thickBot="1">
+      <c r="B30" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="99" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="78" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="66" t="s">
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="50"/>
-    </row>
-    <row r="30" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="93" t="s">
+      <c r="K30" s="120"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B31" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="99" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102" t="s">
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="92" t="s">
+      <c r="H31" s="117"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
-    </row>
-    <row r="31" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="145" t="s">
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="169"/>
+    </row>
+    <row r="32" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="105" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="16" t="s">
+      <c r="H32" s="122"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="36" t="s">
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+    </row>
+    <row r="33" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="24" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="44" t="s">
+      <c r="H33" s="114"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="47"/>
-    </row>
-    <row r="33" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+    </row>
+    <row r="34" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="24" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="38" t="s">
+      <c r="H34" s="140"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="47"/>
-    </row>
-    <row r="34" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="95"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="41" t="s">
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52"/>
+    </row>
+    <row r="35" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="24" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="38" t="s">
+      <c r="H35" s="140"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="47"/>
-    </row>
-    <row r="35" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="36" t="s">
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+    </row>
+    <row r="36" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="24" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="19" t="s">
+      <c r="H36" s="114"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
-    </row>
-    <row r="36" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="41" t="s">
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="52"/>
+    </row>
+    <row r="37" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="24" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="25" t="s">
+      <c r="H37" s="140"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="47"/>
-    </row>
-    <row r="37" spans="2:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="146" t="s">
+      <c r="K37" s="95"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="52"/>
+    </row>
+    <row r="38" spans="2:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="147"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="75" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="84" t="s">
+      <c r="H38" s="125"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="50"/>
-    </row>
-    <row r="38" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="164" t="s">
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
+    </row>
+    <row r="39" spans="2:17" ht="19.5" thickBot="1">
+      <c r="B39" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="166" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="78" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="92" t="s">
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="28"/>
-    </row>
-    <row r="39" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="159" t="s">
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+    </row>
+    <row r="40" spans="2:17" ht="19.5" thickBot="1">
+      <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="160"/>
-      <c r="D39" s="161" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="162"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="31"/>
-    </row>
-    <row r="40" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="171"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="49"/>
+    </row>
+    <row r="41" spans="2:17" ht="14.25" thickBot="1">
+      <c r="B41" s="6"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="2:17">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2813,7 +2829,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:17">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2831,7 +2847,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:17">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2849,7 +2865,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:17">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2867,7 +2883,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:17">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2885,7 +2901,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:17">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2903,7 +2919,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:17">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2921,7 +2937,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:17">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2939,7 +2955,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:17">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2957,7 +2973,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:17">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2975,7 +2991,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:17">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2993,7 +3009,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:17">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3011,7 +3027,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:17">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3029,7 +3045,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:17">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3047,7 +3063,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:17">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3065,7 +3081,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:17">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3083,46 +3099,97 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D32:F32"/>
+  <mergeCells count="122">
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
     <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:Q38"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M11:Q16"/>
+    <mergeCell ref="M17:Q22"/>
+    <mergeCell ref="M23:Q30"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B22:C28"/>
-    <mergeCell ref="B16:C21"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M6:Q10"/>
-    <mergeCell ref="B6:C10"/>
-    <mergeCell ref="B11:C15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G10:I10"/>
@@ -3133,77 +3200,47 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B30:C37"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M6:Q10"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="B11:C16"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B23:C29"/>
+    <mergeCell ref="B17:C22"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M11:Q15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="M22:Q29"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B31:C38"/>
+    <mergeCell ref="D31:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3212,12 +3249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3225,12 +3262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
